--- a/cl_revenue_prediction.xlsx
+++ b/cl_revenue_prediction.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>probability</t>
   </si>
   <si>
     <t>cl_revenue_prediction</t>
@@ -377,546 +380,3211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:C291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>886</v>
+        <v>1056</v>
       </c>
       <c r="B2">
-        <v>13.52039900303272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.92</v>
+      </c>
+      <c r="C2">
+        <v>10.67868500495504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
-        <v>1373</v>
+        <v>1431</v>
       </c>
       <c r="B3">
-        <v>12.46036269993587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.91</v>
+      </c>
+      <c r="C3">
+        <v>10.69712922861583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
-        <v>1455</v>
+        <v>1169</v>
       </c>
       <c r="B4">
-        <v>11.39728958830168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C4">
+        <v>10.72832056285819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>1491</v>
+        <v>1231</v>
       </c>
       <c r="B5">
-        <v>11.32498205761578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>10.69266151506172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>1530</v>
+        <v>632</v>
       </c>
       <c r="B6">
-        <v>11.2599864489833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C6">
+        <v>10.69031931526248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>785</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>11.12049064688272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C7">
+        <v>10.68365019635087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
-        <v>217</v>
+        <v>1175</v>
       </c>
       <c r="B8">
-        <v>11.10511973700603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.89</v>
+      </c>
+      <c r="C8">
+        <v>11.77402245593751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
-        <v>342</v>
+        <v>1438</v>
       </c>
       <c r="B9">
-        <v>11.06294903517576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C9">
+        <v>10.68583910637581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
-        <v>1569</v>
+        <v>1513</v>
       </c>
       <c r="B10">
-        <v>11.05610965176208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C10">
+        <v>10.23904186536682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
-        <v>1493</v>
+        <v>491</v>
       </c>
       <c r="B11">
-        <v>11.03554379036948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.88</v>
+      </c>
+      <c r="C11">
+        <v>10.86425487498074</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>1341</v>
+        <v>682</v>
       </c>
       <c r="B12">
-        <v>10.92836923098197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C12">
+        <v>10.53297914622811</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>1443</v>
+        <v>1549</v>
       </c>
       <c r="B13">
-        <v>10.89584265682742</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C13">
+        <v>11.50376818203848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>1597</v>
+        <v>792</v>
       </c>
       <c r="B14">
-        <v>10.88435578075787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C14">
+        <v>10.66091941130412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>996</v>
+        <v>630</v>
       </c>
       <c r="B15">
-        <v>10.87988288720972</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.87</v>
+      </c>
+      <c r="C15">
+        <v>10.67633162231918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B16">
-        <v>10.83366735365128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C16">
+        <v>10.76821036313317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
-        <v>697</v>
+        <v>1265</v>
       </c>
       <c r="B17">
-        <v>10.80081316645587</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C17">
+        <v>10.77038711002891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>1458</v>
+        <v>236</v>
       </c>
       <c r="B18">
-        <v>10.79020948965349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C18">
+        <v>10.68444593828487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>756</v>
+        <v>225</v>
       </c>
       <c r="B19">
-        <v>10.78658390703249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C19">
+        <v>10.68051147105017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>1071</v>
+        <v>558</v>
       </c>
       <c r="B20">
-        <v>10.78532654824282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C20">
+        <v>10.67076661582283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>1119</v>
+        <v>448</v>
       </c>
       <c r="B21">
-        <v>10.78259979282121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C21">
+        <v>10.62324624512372</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>1082</v>
+        <v>1591</v>
       </c>
       <c r="B22">
-        <v>10.75267555334879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.86</v>
+      </c>
+      <c r="C22">
+        <v>10.66771225873262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B23">
-        <v>10.75153306352156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C23">
+        <v>10.47473297996038</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
-        <v>311</v>
+        <v>519</v>
       </c>
       <c r="B24">
-        <v>10.74110662696034</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C24">
+        <v>10.67242174028188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
-        <v>1063</v>
+        <v>1561</v>
       </c>
       <c r="B25">
-        <v>10.735247462141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C25">
+        <v>10.61588552789407</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
-        <v>1343</v>
+        <v>838</v>
       </c>
       <c r="B26">
-        <v>10.72927313055043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C26">
+        <v>10.66391878896036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>485</v>
+        <v>642</v>
       </c>
       <c r="B27">
-        <v>10.72583313455443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C27">
+        <v>10.53602705171868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
-        <v>562</v>
+        <v>1342</v>
       </c>
       <c r="B28">
-        <v>10.72519554840063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C28">
+        <v>11.28241643495558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29">
-        <v>706</v>
+        <v>922</v>
       </c>
       <c r="B29">
-        <v>10.71742306290625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C29">
+        <v>10.73788174447769</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B30">
-        <v>10.70743814532747</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C30">
+        <v>10.73964566700222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
-        <v>4</v>
+        <v>384</v>
       </c>
       <c r="B31">
-        <v>10.7045069653958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C31">
+        <v>10.75384872713529</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
-        <v>1031</v>
+        <v>1293</v>
       </c>
       <c r="B32">
-        <v>10.70385560997255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C32">
+        <v>11.09707546488474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="B33">
-        <v>10.70085337112996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.85</v>
+      </c>
+      <c r="C33">
+        <v>10.6655756042504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="B34">
-        <v>10.69749749949552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C34">
+        <v>10.66149907893323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>731</v>
+        <v>906</v>
       </c>
       <c r="B35">
-        <v>10.69692299367422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C35">
+        <v>10.66876264229328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>498</v>
+        <v>608</v>
       </c>
       <c r="B36">
-        <v>10.69368550093271</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C36">
+        <v>10.29389395731774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>1240</v>
+        <v>775</v>
       </c>
       <c r="B37">
-        <v>10.69084491069779</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C37">
+        <v>14.10832135718405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>1360</v>
+        <v>408</v>
       </c>
       <c r="B38">
-        <v>10.68989296824389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C38">
+        <v>11.12414194119819</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>1448</v>
+        <v>1025</v>
       </c>
       <c r="B39">
-        <v>10.68911499438977</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C39">
+        <v>11.04471201241837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>61</v>
+        <v>1298</v>
       </c>
       <c r="B40">
-        <v>10.67695489838343</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C40">
+        <v>10.86193299559379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>1096</v>
+        <v>134</v>
       </c>
       <c r="B41">
-        <v>10.67642607872835</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.84</v>
+      </c>
+      <c r="C41">
+        <v>10.88243315290041</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B42">
-        <v>10.67541009776231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C42">
+        <v>10.6039780357383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>852</v>
+        <v>245</v>
       </c>
       <c r="B43">
-        <v>10.67370021077731</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C43">
+        <v>10.67327908027427</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44">
-        <v>261</v>
+        <v>1104</v>
       </c>
       <c r="B44">
-        <v>10.67368158638209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C44">
+        <v>10.68039654065504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45">
-        <v>293</v>
+        <v>1564</v>
       </c>
       <c r="B45">
-        <v>10.67260388650413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C45">
+        <v>10.66764159502311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46">
-        <v>41</v>
+        <v>865</v>
       </c>
       <c r="B46">
-        <v>10.67180424454858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C46">
+        <v>10.6852445948222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47">
-        <v>1123</v>
+        <v>492</v>
       </c>
       <c r="B47">
-        <v>10.67087638953944</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C47">
+        <v>11.00600317139835</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>595</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>10.6696345628166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.83</v>
+      </c>
+      <c r="C48">
+        <v>10.62980515514674</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
-        <v>828</v>
+        <v>159</v>
       </c>
       <c r="B49">
-        <v>10.66877857941756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C49">
+        <v>10.70281749193139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="B50">
-        <v>10.66730219776743</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C50">
+        <v>10.8092831107166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="B51">
-        <v>10.66668220756542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C51">
+        <v>10.81691554353393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
-        <v>1321</v>
+        <v>627</v>
       </c>
       <c r="B52">
-        <v>10.6661888252064</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C52">
+        <v>10.66052595007504</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="B53">
-        <v>10.66581167782925</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C53">
+        <v>10.68158591642588</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="B54">
-        <v>10.66477861447747</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C54">
+        <v>10.72970051316505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
-        <v>454</v>
+        <v>112</v>
       </c>
       <c r="B55">
-        <v>10.66469876842163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C55">
+        <v>10.67433621183457</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="B56">
-        <v>10.66427777676849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C56">
+        <v>10.7475490130666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="B57">
-        <v>10.66373540817444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C57">
+        <v>10.6701126986632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
-        <v>975</v>
+        <v>1499</v>
       </c>
       <c r="B58">
-        <v>10.66102013913009</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C58">
+        <v>10.90897862557566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
-        <v>126</v>
+        <v>1220</v>
       </c>
       <c r="B59">
-        <v>10.65944620532457</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C59">
+        <v>10.30677662132579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
-        <v>1474</v>
+        <v>1035</v>
       </c>
       <c r="B60">
-        <v>10.65598336534368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.82</v>
+      </c>
+      <c r="C60">
+        <v>10.43354623083286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
-        <v>164</v>
+        <v>575</v>
       </c>
       <c r="B61">
-        <v>10.63250446400662</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C61">
+        <v>10.68811354330609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>10.62717640709061</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C62">
+        <v>10.24609140034462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
-        <v>524</v>
+        <v>1585</v>
       </c>
       <c r="B63">
-        <v>10.62367191793152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C63">
+        <v>10.69664796378502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
-        <v>1543</v>
+        <v>1403</v>
       </c>
       <c r="B64">
-        <v>10.54038388200178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C64">
+        <v>10.40817307959989</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <v>978</v>
+        <v>1033</v>
       </c>
       <c r="B65">
-        <v>10.50695258336057</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C65">
+        <v>10.38365715240426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
-        <v>1192</v>
+        <v>846</v>
       </c>
       <c r="B66">
-        <v>10.42102871664716</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C66">
+        <v>11.01660092691832</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
-        <v>1385</v>
+        <v>1155</v>
       </c>
       <c r="B67">
-        <v>10.41227865787534</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C67">
+        <v>10.66921486606239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>1267</v>
+      </c>
+      <c r="B68">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C68">
+        <v>10.72554506615155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>1065</v>
+      </c>
+      <c r="B69">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C69">
+        <v>10.71731893736605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>304</v>
+      </c>
+      <c r="B70">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C70">
+        <v>10.83482082329992</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>271</v>
+      </c>
+      <c r="B71">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C71">
+        <v>10.5021643329798</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>509</v>
+      </c>
+      <c r="B72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C72">
+        <v>10.91689958202769</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>1291</v>
+      </c>
+      <c r="B73">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C73">
+        <v>10.55956178303307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>1259</v>
+      </c>
+      <c r="B74">
+        <v>0.8</v>
+      </c>
+      <c r="C74">
+        <v>10.70432670324247</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>692</v>
+      </c>
+      <c r="B75">
+        <v>0.8</v>
+      </c>
+      <c r="C75">
+        <v>10.682399817814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>1590</v>
+      </c>
+      <c r="B76">
+        <v>0.8</v>
+      </c>
+      <c r="C76">
+        <v>11.43317409538736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>1557</v>
+      </c>
+      <c r="B77">
+        <v>0.8</v>
+      </c>
+      <c r="C77">
+        <v>10.66268791270843</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>1159</v>
+      </c>
+      <c r="B78">
+        <v>0.8</v>
+      </c>
+      <c r="C78">
+        <v>10.69007840201172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>809</v>
+      </c>
+      <c r="B79">
+        <v>0.8</v>
+      </c>
+      <c r="C79">
+        <v>10.70765809402611</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>859</v>
+      </c>
+      <c r="B80">
+        <v>0.8</v>
+      </c>
+      <c r="C80">
+        <v>10.68121127489831</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>438</v>
+      </c>
+      <c r="B81">
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <v>10.98299027932642</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>387</v>
+      </c>
+      <c r="B82">
+        <v>0.8</v>
+      </c>
+      <c r="C82">
+        <v>10.63302575316101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>557</v>
+      </c>
+      <c r="B83">
+        <v>0.8</v>
+      </c>
+      <c r="C83">
+        <v>10.76294636897563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>348</v>
+      </c>
+      <c r="B84">
+        <v>0.8</v>
+      </c>
+      <c r="C84">
+        <v>10.48458703374229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>1582</v>
+      </c>
+      <c r="B85">
+        <v>0.8</v>
+      </c>
+      <c r="C85">
+        <v>10.66798191707082</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>1329</v>
+      </c>
+      <c r="B86">
+        <v>0.8</v>
+      </c>
+      <c r="C86">
+        <v>11.45886329518979</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>970</v>
+      </c>
+      <c r="B87">
+        <v>0.8</v>
+      </c>
+      <c r="C87">
+        <v>10.34615843468045</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1012</v>
+      </c>
+      <c r="B88">
+        <v>0.8</v>
+      </c>
+      <c r="C88">
+        <v>10.66309279905391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>298</v>
+      </c>
+      <c r="B89">
+        <v>0.8</v>
+      </c>
+      <c r="C89">
+        <v>10.66517102317803</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>639</v>
+      </c>
+      <c r="B90">
+        <v>0.79</v>
+      </c>
+      <c r="C90">
+        <v>10.68970185273642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>961</v>
+      </c>
+      <c r="B91">
+        <v>0.79</v>
+      </c>
+      <c r="C91">
+        <v>10.67644349428785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>703</v>
+      </c>
+      <c r="B92">
+        <v>0.79</v>
+      </c>
+      <c r="C92">
+        <v>10.67372407986383</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>863</v>
+      </c>
+      <c r="B93">
+        <v>0.79</v>
+      </c>
+      <c r="C93">
+        <v>10.67075695162701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>873</v>
+      </c>
+      <c r="B94">
+        <v>0.79</v>
+      </c>
+      <c r="C94">
+        <v>11.81850135301678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1030</v>
+      </c>
+      <c r="B95">
+        <v>0.79</v>
+      </c>
+      <c r="C95">
+        <v>10.68941602029745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1058</v>
+      </c>
+      <c r="B96">
+        <v>0.79</v>
+      </c>
+      <c r="C96">
+        <v>10.43933742499566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1292</v>
+      </c>
+      <c r="B97">
+        <v>0.79</v>
+      </c>
+      <c r="C97">
+        <v>10.65840771396505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1117</v>
+      </c>
+      <c r="B98">
+        <v>0.79</v>
+      </c>
+      <c r="C98">
+        <v>10.8871226983611</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>1160</v>
+      </c>
+      <c r="B99">
+        <v>0.79</v>
+      </c>
+      <c r="C99">
+        <v>10.81950854279212</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>614</v>
+      </c>
+      <c r="B100">
+        <v>0.79</v>
+      </c>
+      <c r="C100">
+        <v>10.58930225121022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1261</v>
+      </c>
+      <c r="B101">
+        <v>0.79</v>
+      </c>
+      <c r="C101">
+        <v>10.69840639906164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>477</v>
+      </c>
+      <c r="B102">
+        <v>0.79</v>
+      </c>
+      <c r="C102">
+        <v>10.65624443473678</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>495</v>
+      </c>
+      <c r="B103">
+        <v>0.79</v>
+      </c>
+      <c r="C103">
+        <v>10.63509880557316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>316</v>
+      </c>
+      <c r="B104">
+        <v>0.79</v>
+      </c>
+      <c r="C104">
+        <v>10.66061050758611</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1484</v>
+      </c>
+      <c r="B105">
+        <v>0.79</v>
+      </c>
+      <c r="C105">
+        <v>10.66181289097943</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>1538</v>
+      </c>
+      <c r="B106">
+        <v>0.79</v>
+      </c>
+      <c r="C106">
+        <v>11.90065154150608</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>203</v>
+      </c>
+      <c r="B107">
+        <v>0.79</v>
+      </c>
+      <c r="C107">
+        <v>10.66550828668045</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>279</v>
+      </c>
+      <c r="B108">
+        <v>0.78</v>
+      </c>
+      <c r="C108">
+        <v>10.70000660272348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1565</v>
+      </c>
+      <c r="B109">
+        <v>0.78</v>
+      </c>
+      <c r="C109">
+        <v>10.69070300487098</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1425</v>
+      </c>
+      <c r="B110">
+        <v>0.78</v>
+      </c>
+      <c r="C110">
+        <v>10.59084527297746</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>450</v>
+      </c>
+      <c r="B111">
+        <v>0.78</v>
+      </c>
+      <c r="C111">
+        <v>10.66507313411138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>713</v>
+      </c>
+      <c r="B112">
+        <v>0.78</v>
+      </c>
+      <c r="C112">
+        <v>10.66721546268455</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>1488</v>
+      </c>
+      <c r="B113">
+        <v>0.78</v>
+      </c>
+      <c r="C113">
+        <v>10.71035838814072</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>776</v>
+      </c>
+      <c r="B114">
+        <v>0.78</v>
+      </c>
+      <c r="C114">
+        <v>10.29713773241339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>221</v>
+      </c>
+      <c r="B115">
+        <v>0.78</v>
+      </c>
+      <c r="C115">
+        <v>10.71448571620577</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>1427</v>
+      </c>
+      <c r="B116">
+        <v>0.78</v>
+      </c>
+      <c r="C116">
+        <v>10.25725954816466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>213</v>
+      </c>
+      <c r="B117">
+        <v>0.78</v>
+      </c>
+      <c r="C117">
+        <v>10.75131612478533</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>143</v>
+      </c>
+      <c r="B118">
+        <v>0.78</v>
+      </c>
+      <c r="C118">
+        <v>11.2153165740742</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>1596</v>
+      </c>
+      <c r="B119">
+        <v>0.78</v>
+      </c>
+      <c r="C119">
+        <v>10.46036324656256</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>82</v>
+      </c>
+      <c r="B120">
+        <v>0.78</v>
+      </c>
+      <c r="C120">
+        <v>10.94344436913621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>1060</v>
+      </c>
+      <c r="B121">
+        <v>0.78</v>
+      </c>
+      <c r="C121">
+        <v>10.68950976275505</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>0.78</v>
+      </c>
+      <c r="C122">
+        <v>10.77220490898172</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1078</v>
+      </c>
+      <c r="B123">
+        <v>0.78</v>
+      </c>
+      <c r="C123">
+        <v>10.66701194832841</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>537</v>
+      </c>
+      <c r="B124">
+        <v>0.78</v>
+      </c>
+      <c r="C124">
+        <v>10.69271300962309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>527</v>
+      </c>
+      <c r="B125">
+        <v>0.78</v>
+      </c>
+      <c r="C125">
+        <v>10.72631012388443</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>990</v>
+      </c>
+      <c r="B126">
+        <v>0.77</v>
+      </c>
+      <c r="C126">
+        <v>10.27944830452763</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1391</v>
+      </c>
+      <c r="B127">
+        <v>0.77</v>
+      </c>
+      <c r="C127">
+        <v>10.74094003598259</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1163</v>
+      </c>
+      <c r="B128">
+        <v>0.77</v>
+      </c>
+      <c r="C128">
+        <v>10.81321937411422</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>404</v>
+      </c>
+      <c r="B129">
+        <v>0.77</v>
+      </c>
+      <c r="C129">
+        <v>10.66515266780391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>860</v>
+      </c>
+      <c r="B130">
+        <v>0.77</v>
+      </c>
+      <c r="C130">
+        <v>10.67487035827022</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>855</v>
+      </c>
+      <c r="B131">
+        <v>0.77</v>
+      </c>
+      <c r="C131">
+        <v>10.65339076785402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>1190</v>
+      </c>
+      <c r="B132">
+        <v>0.77</v>
+      </c>
+      <c r="C132">
+        <v>10.66681789204543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>584</v>
+      </c>
+      <c r="B133">
+        <v>0.77</v>
+      </c>
+      <c r="C133">
+        <v>10.57786624464356</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>914</v>
+      </c>
+      <c r="B134">
+        <v>0.77</v>
+      </c>
+      <c r="C134">
+        <v>11.41837973709361</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>525</v>
+      </c>
+      <c r="B135">
+        <v>0.77</v>
+      </c>
+      <c r="C135">
+        <v>10.51035692784564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>679</v>
+      </c>
+      <c r="B136">
+        <v>0.77</v>
+      </c>
+      <c r="C136">
+        <v>10.65559900618079</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>662</v>
+      </c>
+      <c r="B137">
+        <v>0.77</v>
+      </c>
+      <c r="C137">
+        <v>10.66643890866867</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>1121</v>
+      </c>
+      <c r="B138">
+        <v>0.76</v>
+      </c>
+      <c r="C138">
+        <v>10.6669470814841</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>900</v>
+      </c>
+      <c r="B139">
+        <v>0.76</v>
+      </c>
+      <c r="C139">
+        <v>10.66875889945568</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>593</v>
+      </c>
+      <c r="B140">
+        <v>0.76</v>
+      </c>
+      <c r="C140">
+        <v>10.65700714906593</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>179</v>
+      </c>
+      <c r="B141">
+        <v>0.76</v>
+      </c>
+      <c r="C141">
+        <v>10.66159078739398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>1584</v>
+      </c>
+      <c r="B142">
+        <v>0.76</v>
+      </c>
+      <c r="C142">
+        <v>11.59792949816738</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>1151</v>
+      </c>
+      <c r="B143">
+        <v>0.76</v>
+      </c>
+      <c r="C143">
+        <v>12.22037402819308</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>729</v>
+      </c>
+      <c r="B144">
+        <v>0.76</v>
+      </c>
+      <c r="C144">
+        <v>10.73440545108014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>1179</v>
+      </c>
+      <c r="B145">
+        <v>0.76</v>
+      </c>
+      <c r="C145">
+        <v>10.69409211031557</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>611</v>
+      </c>
+      <c r="B146">
+        <v>0.76</v>
+      </c>
+      <c r="C146">
+        <v>10.74490263430779</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>1191</v>
+      </c>
+      <c r="B147">
+        <v>0.76</v>
+      </c>
+      <c r="C147">
+        <v>10.67584378599242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>1463</v>
+      </c>
+      <c r="B148">
+        <v>0.76</v>
+      </c>
+      <c r="C148">
+        <v>10.69599101321148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>73</v>
+      </c>
+      <c r="B149">
+        <v>0.76</v>
+      </c>
+      <c r="C149">
+        <v>10.77301144838565</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>1253</v>
+      </c>
+      <c r="B150">
+        <v>0.76</v>
+      </c>
+      <c r="C150">
+        <v>10.70432766754469</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>1524</v>
+      </c>
+      <c r="B151">
+        <v>0.76</v>
+      </c>
+      <c r="C151">
+        <v>10.66664412896568</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>22</v>
+      </c>
+      <c r="B152">
+        <v>0.76</v>
+      </c>
+      <c r="C152">
+        <v>10.74609757615054</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>808</v>
+      </c>
+      <c r="B153">
+        <v>0.76</v>
+      </c>
+      <c r="C153">
+        <v>10.76329692348435</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>747</v>
+      </c>
+      <c r="B154">
+        <v>0.76</v>
+      </c>
+      <c r="C154">
+        <v>10.6622732988882</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>1537</v>
+      </c>
+      <c r="B155">
+        <v>0.75</v>
+      </c>
+      <c r="C155">
+        <v>10.67271114725392</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>1000</v>
+      </c>
+      <c r="B156">
+        <v>0.75</v>
+      </c>
+      <c r="C156">
+        <v>12.74932409384171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>284</v>
+      </c>
+      <c r="B157">
+        <v>0.75</v>
+      </c>
+      <c r="C157">
+        <v>10.74705993989059</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>732</v>
+      </c>
+      <c r="B158">
+        <v>0.75</v>
+      </c>
+      <c r="C158">
+        <v>10.73622246926027</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>120</v>
+      </c>
+      <c r="B159">
+        <v>0.75</v>
+      </c>
+      <c r="C159">
+        <v>10.6664705935788</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>1364</v>
+      </c>
+      <c r="B160">
+        <v>0.75</v>
+      </c>
+      <c r="C160">
+        <v>10.5100998480496</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>1223</v>
+      </c>
+      <c r="B161">
+        <v>0.75</v>
+      </c>
+      <c r="C161">
+        <v>10.66860507796481</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>938</v>
+      </c>
+      <c r="B162">
+        <v>0.75</v>
+      </c>
+      <c r="C162">
+        <v>11.01926507977533</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>1238</v>
+      </c>
+      <c r="B163">
+        <v>0.75</v>
+      </c>
+      <c r="C163">
+        <v>10.68327184649078</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>643</v>
+      </c>
+      <c r="B164">
+        <v>0.75</v>
+      </c>
+      <c r="C164">
+        <v>14.95443683593292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>129</v>
+      </c>
+      <c r="B165">
+        <v>0.75</v>
+      </c>
+      <c r="C165">
+        <v>10.69907312862616</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>360</v>
+      </c>
+      <c r="B166">
+        <v>0.75</v>
+      </c>
+      <c r="C166">
+        <v>10.48336901344611</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>904</v>
+      </c>
+      <c r="B167">
+        <v>0.75</v>
+      </c>
+      <c r="C167">
+        <v>10.80105255211764</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>1091</v>
+      </c>
+      <c r="B168">
+        <v>0.75</v>
+      </c>
+      <c r="C168">
+        <v>10.69943437668295</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>1005</v>
+      </c>
+      <c r="B169">
+        <v>0.75</v>
+      </c>
+      <c r="C169">
+        <v>10.67816780533041</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>1177</v>
+      </c>
+      <c r="B170">
+        <v>0.74</v>
+      </c>
+      <c r="C170">
+        <v>10.92236602417423</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>826</v>
+      </c>
+      <c r="B171">
+        <v>0.74</v>
+      </c>
+      <c r="C171">
+        <v>10.8715176388029</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>1506</v>
+      </c>
+      <c r="B172">
+        <v>0.74</v>
+      </c>
+      <c r="C172">
+        <v>10.67293305033651</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>827</v>
+      </c>
+      <c r="B173">
+        <v>0.74</v>
+      </c>
+      <c r="C173">
+        <v>10.65899631321164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>118</v>
+      </c>
+      <c r="B174">
+        <v>0.74</v>
+      </c>
+      <c r="C174">
+        <v>10.45945238118652</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>754</v>
+      </c>
+      <c r="B175">
+        <v>0.74</v>
+      </c>
+      <c r="C175">
+        <v>10.66846111237141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>187</v>
+      </c>
+      <c r="B176">
+        <v>0.74</v>
+      </c>
+      <c r="C176">
+        <v>10.67934563018097</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>480</v>
+      </c>
+      <c r="B177">
+        <v>0.74</v>
+      </c>
+      <c r="C177">
+        <v>10.69400254153804</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>503</v>
+      </c>
+      <c r="B178">
+        <v>0.74</v>
+      </c>
+      <c r="C178">
+        <v>10.7033190143228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>335</v>
+      </c>
+      <c r="B179">
+        <v>0.74</v>
+      </c>
+      <c r="C179">
+        <v>10.66725250253456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>1196</v>
+      </c>
+      <c r="B180">
+        <v>0.74</v>
+      </c>
+      <c r="C180">
+        <v>10.79155591121079</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>917</v>
+      </c>
+      <c r="B181">
+        <v>0.74</v>
+      </c>
+      <c r="C181">
+        <v>10.65404455928423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>501</v>
+      </c>
+      <c r="B182">
+        <v>0.74</v>
+      </c>
+      <c r="C182">
+        <v>10.5258374334701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>1495</v>
+      </c>
+      <c r="B183">
+        <v>0.74</v>
+      </c>
+      <c r="C183">
+        <v>10.66213682715525</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>451</v>
+      </c>
+      <c r="B184">
+        <v>0.73</v>
+      </c>
+      <c r="C184">
+        <v>10.659684367742</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>806</v>
+      </c>
+      <c r="B185">
+        <v>0.73</v>
+      </c>
+      <c r="C185">
+        <v>10.66629740869413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>1284</v>
+      </c>
+      <c r="B186">
+        <v>0.73</v>
+      </c>
+      <c r="C186">
+        <v>10.66715482222782</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>1470</v>
+      </c>
+      <c r="B187">
+        <v>0.73</v>
+      </c>
+      <c r="C187">
+        <v>10.55425668119872</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>1246</v>
+      </c>
+      <c r="B188">
+        <v>0.73</v>
+      </c>
+      <c r="C188">
+        <v>11.17516507610295</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>795</v>
+      </c>
+      <c r="B189">
+        <v>0.73</v>
+      </c>
+      <c r="C189">
+        <v>10.58631023103152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>1130</v>
+      </c>
+      <c r="B190">
+        <v>0.73</v>
+      </c>
+      <c r="C190">
+        <v>10.66082107659484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>600</v>
+      </c>
+      <c r="B191">
+        <v>0.73</v>
+      </c>
+      <c r="C191">
+        <v>10.4323226533544</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>147</v>
+      </c>
+      <c r="B192">
+        <v>0.73</v>
+      </c>
+      <c r="C192">
+        <v>10.66993529176906</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>1514</v>
+      </c>
+      <c r="B193">
+        <v>0.73</v>
+      </c>
+      <c r="C193">
+        <v>10.66620556848402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>739</v>
+      </c>
+      <c r="B194">
+        <v>0.73</v>
+      </c>
+      <c r="C194">
+        <v>10.83109771209197</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>673</v>
+      </c>
+      <c r="B195">
+        <v>0.73</v>
+      </c>
+      <c r="C195">
+        <v>10.36978721600603</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>911</v>
+      </c>
+      <c r="B196">
+        <v>0.73</v>
+      </c>
+      <c r="C196">
+        <v>10.65190972354973</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>441</v>
+      </c>
+      <c r="B197">
+        <v>0.73</v>
+      </c>
+      <c r="C197">
+        <v>10.6652764811289</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>1355</v>
+      </c>
+      <c r="B198">
+        <v>0.73</v>
+      </c>
+      <c r="C198">
+        <v>10.66787869127532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>1436</v>
+      </c>
+      <c r="B199">
+        <v>0.73</v>
+      </c>
+      <c r="C199">
+        <v>10.60074389124382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>303</v>
+      </c>
+      <c r="B200">
+        <v>0.73</v>
+      </c>
+      <c r="C200">
+        <v>10.78235348782534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>1483</v>
+      </c>
+      <c r="B201">
+        <v>0.73</v>
+      </c>
+      <c r="C201">
+        <v>10.69369924611001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>1442</v>
+      </c>
+      <c r="B202">
+        <v>0.73</v>
+      </c>
+      <c r="C202">
+        <v>10.66232568293435</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>1399</v>
+      </c>
+      <c r="B203">
+        <v>0.73</v>
+      </c>
+      <c r="C203">
+        <v>10.75007018513145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>470</v>
+      </c>
+      <c r="B204">
+        <v>0.72</v>
+      </c>
+      <c r="C204">
+        <v>10.66402593234952</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>1079</v>
+      </c>
+      <c r="B205">
+        <v>0.72</v>
+      </c>
+      <c r="C205">
+        <v>10.82621161395739</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>678</v>
+      </c>
+      <c r="B206">
+        <v>0.72</v>
+      </c>
+      <c r="C206">
+        <v>14.10832135718405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>192</v>
+      </c>
+      <c r="B207">
+        <v>0.72</v>
+      </c>
+      <c r="C207">
+        <v>10.33497433621879</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>415</v>
+      </c>
+      <c r="B208">
+        <v>0.72</v>
+      </c>
+      <c r="C208">
+        <v>10.70971351378811</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>181</v>
+      </c>
+      <c r="B209">
+        <v>0.72</v>
+      </c>
+      <c r="C209">
+        <v>10.68573814338542</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>553</v>
+      </c>
+      <c r="B210">
+        <v>0.72</v>
+      </c>
+      <c r="C210">
+        <v>10.78198428314962</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>327</v>
+      </c>
+      <c r="B211">
+        <v>0.72</v>
+      </c>
+      <c r="C211">
+        <v>11.90224076289468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>1595</v>
+      </c>
+      <c r="B212">
+        <v>0.72</v>
+      </c>
+      <c r="C212">
+        <v>10.70028552277207</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>67</v>
+      </c>
+      <c r="B213">
+        <v>0.72</v>
+      </c>
+      <c r="C213">
+        <v>10.72638382666219</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>1376</v>
+      </c>
+      <c r="B214">
+        <v>0.72</v>
+      </c>
+      <c r="C214">
+        <v>10.71200167078507</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>1299</v>
+      </c>
+      <c r="B215">
+        <v>0.71</v>
+      </c>
+      <c r="C215">
+        <v>10.7267175026374</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>1467</v>
+      </c>
+      <c r="B216">
+        <v>0.71</v>
+      </c>
+      <c r="C216">
+        <v>10.68397188579663</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>1372</v>
+      </c>
+      <c r="B217">
+        <v>0.71</v>
+      </c>
+      <c r="C217">
+        <v>10.65870030608885</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>1345</v>
+      </c>
+      <c r="B218">
+        <v>0.71</v>
+      </c>
+      <c r="C218">
+        <v>10.73707893150672</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>1502</v>
+      </c>
+      <c r="B219">
+        <v>0.71</v>
+      </c>
+      <c r="C219">
+        <v>10.68645838065262</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>1347</v>
+      </c>
+      <c r="B220">
+        <v>0.71</v>
+      </c>
+      <c r="C220">
+        <v>11.11698324996622</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>849</v>
+      </c>
+      <c r="B221">
+        <v>0.71</v>
+      </c>
+      <c r="C221">
+        <v>10.67257797560719</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>1254</v>
+      </c>
+      <c r="B222">
+        <v>0.71</v>
+      </c>
+      <c r="C222">
+        <v>10.68143642714898</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>1083</v>
+      </c>
+      <c r="B223">
+        <v>0.71</v>
+      </c>
+      <c r="C223">
+        <v>10.6541619143501</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>482</v>
+      </c>
+      <c r="B224">
+        <v>0.71</v>
+      </c>
+      <c r="C224">
+        <v>10.66472095418233</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>578</v>
+      </c>
+      <c r="B225">
+        <v>0.71</v>
+      </c>
+      <c r="C225">
+        <v>10.83563062916633</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>658</v>
+      </c>
+      <c r="B226">
+        <v>0.71</v>
+      </c>
+      <c r="C226">
+        <v>10.70104805384774</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>777</v>
+      </c>
+      <c r="B227">
+        <v>0.71</v>
+      </c>
+      <c r="C227">
+        <v>10.67463833888698</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>1600</v>
+      </c>
+      <c r="B228">
+        <v>0.71</v>
+      </c>
+      <c r="C228">
+        <v>10.47931046133747</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>1111</v>
+      </c>
+      <c r="B229">
+        <v>0.71</v>
+      </c>
+      <c r="C229">
+        <v>10.38991953228398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>1350</v>
+      </c>
+      <c r="B230">
+        <v>0.7</v>
+      </c>
+      <c r="C230">
+        <v>10.65777464096276</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>1268</v>
+      </c>
+      <c r="B231">
+        <v>0.7</v>
+      </c>
+      <c r="C231">
+        <v>10.68579802846965</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>444</v>
+      </c>
+      <c r="B232">
+        <v>0.7</v>
+      </c>
+      <c r="C232">
+        <v>10.69223127032348</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>421</v>
+      </c>
+      <c r="B233">
+        <v>0.7</v>
+      </c>
+      <c r="C233">
+        <v>11.00210353259728</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>388</v>
+      </c>
+      <c r="B234">
+        <v>0.7</v>
+      </c>
+      <c r="C234">
+        <v>10.6828296454022</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>1527</v>
+      </c>
+      <c r="B235">
+        <v>0.7</v>
+      </c>
+      <c r="C235">
+        <v>10.66309706979656</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>341</v>
+      </c>
+      <c r="B236">
+        <v>0.7</v>
+      </c>
+      <c r="C236">
+        <v>10.72789345695373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>1555</v>
+      </c>
+      <c r="B237">
+        <v>0.7</v>
+      </c>
+      <c r="C237">
+        <v>10.68000733207337</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>1558</v>
+      </c>
+      <c r="B238">
+        <v>0.7</v>
+      </c>
+      <c r="C238">
+        <v>10.67625137124164</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>241</v>
+      </c>
+      <c r="B239">
+        <v>0.7</v>
+      </c>
+      <c r="C239">
+        <v>10.67427918960757</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>1563</v>
+      </c>
+      <c r="B240">
+        <v>0.7</v>
+      </c>
+      <c r="C240">
+        <v>10.67190228752918</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>1579</v>
+      </c>
+      <c r="B241">
+        <v>0.7</v>
+      </c>
+      <c r="C241">
+        <v>10.45961588274829</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>1113</v>
+      </c>
+      <c r="B242">
+        <v>0.7</v>
+      </c>
+      <c r="C242">
+        <v>10.66273686693795</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>300</v>
+      </c>
+      <c r="B243">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C243">
+        <v>10.66804152147652</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>693</v>
+      </c>
+      <c r="B244">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C244">
+        <v>10.76124304323006</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>1517</v>
+      </c>
+      <c r="B245">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C245">
+        <v>10.66648061492962</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>483</v>
+      </c>
+      <c r="B246">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C246">
+        <v>10.70940962924838</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>160</v>
+      </c>
+      <c r="B247">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C247">
+        <v>10.7796186962111</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>542</v>
+      </c>
+      <c r="B248">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C248">
+        <v>10.71984693386436</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>1209</v>
+      </c>
+      <c r="B249">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C249">
+        <v>10.68217438865835</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>730</v>
+      </c>
+      <c r="B250">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C250">
+        <v>10.67581654341309</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>1392</v>
+      </c>
+      <c r="B251">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C251">
+        <v>10.61302325824205</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>1316</v>
+      </c>
+      <c r="B252">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C252">
+        <v>10.56001020981109</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>1041</v>
+      </c>
+      <c r="B253">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C253">
+        <v>14.93394010266239</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>953</v>
+      </c>
+      <c r="B254">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C254">
+        <v>10.66125338461204</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>941</v>
+      </c>
+      <c r="B255">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C255">
+        <v>10.8326303136634</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>955</v>
+      </c>
+      <c r="B256">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C256">
+        <v>10.7784593827327</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>1409</v>
+      </c>
+      <c r="B257">
+        <v>0.68</v>
+      </c>
+      <c r="C257">
+        <v>10.66910948634621</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>272</v>
+      </c>
+      <c r="B258">
+        <v>0.68</v>
+      </c>
+      <c r="C258">
+        <v>10.69020408286111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>1308</v>
+      </c>
+      <c r="B259">
+        <v>0.68</v>
+      </c>
+      <c r="C259">
+        <v>10.669533869401</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>95</v>
+      </c>
+      <c r="B260">
+        <v>0.68</v>
+      </c>
+      <c r="C260">
+        <v>10.83527871761559</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>1323</v>
+      </c>
+      <c r="B261">
+        <v>0.68</v>
+      </c>
+      <c r="C261">
+        <v>10.6767881557002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>561</v>
+      </c>
+      <c r="B262">
+        <v>0.68</v>
+      </c>
+      <c r="C262">
+        <v>10.67148055334907</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>215</v>
+      </c>
+      <c r="B263">
+        <v>0.68</v>
+      </c>
+      <c r="C263">
+        <v>11.18929219779131</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>960</v>
+      </c>
+      <c r="B264">
+        <v>0.68</v>
+      </c>
+      <c r="C264">
+        <v>10.68660994577795</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>515</v>
+      </c>
+      <c r="B265">
+        <v>0.68</v>
+      </c>
+      <c r="C265">
+        <v>10.40746269577656</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>686</v>
+      </c>
+      <c r="B266">
+        <v>0.68</v>
+      </c>
+      <c r="C266">
+        <v>10.70408759410924</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>33</v>
+      </c>
+      <c r="B267">
+        <v>0.67</v>
+      </c>
+      <c r="C267">
+        <v>11.45740817425048</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>156</v>
+      </c>
+      <c r="B268">
+        <v>0.67</v>
+      </c>
+      <c r="C268">
+        <v>10.41262914050208</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>1115</v>
+      </c>
+      <c r="B269">
+        <v>0.67</v>
+      </c>
+      <c r="C269">
+        <v>10.81716399145766</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>1574</v>
+      </c>
+      <c r="B270">
+        <v>0.67</v>
+      </c>
+      <c r="C270">
+        <v>10.68537066501607</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>956</v>
+      </c>
+      <c r="B271">
+        <v>0.67</v>
+      </c>
+      <c r="C271">
+        <v>10.79243350940061</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>518</v>
+      </c>
+      <c r="B272">
+        <v>0.67</v>
+      </c>
+      <c r="C272">
+        <v>10.72440758409008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>1195</v>
+      </c>
+      <c r="B273">
+        <v>0.67</v>
+      </c>
+      <c r="C273">
+        <v>10.66422142290481</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>905</v>
+      </c>
+      <c r="B274">
+        <v>0.67</v>
+      </c>
+      <c r="C274">
+        <v>10.84201100177323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>455</v>
+      </c>
+      <c r="B275">
+        <v>0.66</v>
+      </c>
+      <c r="C275">
+        <v>12.10754152018545</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>947</v>
+      </c>
+      <c r="B276">
+        <v>0.66</v>
+      </c>
+      <c r="C276">
+        <v>10.71425808621045</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>222</v>
+      </c>
+      <c r="B277">
+        <v>0.66</v>
+      </c>
+      <c r="C277">
+        <v>10.65905918091048</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>1534</v>
+      </c>
+      <c r="B278">
+        <v>0.66</v>
+      </c>
+      <c r="C278">
+        <v>10.47502910433356</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>881</v>
+      </c>
+      <c r="B279">
+        <v>0.66</v>
+      </c>
+      <c r="C279">
+        <v>10.77651119821427</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>985</v>
+      </c>
+      <c r="B280">
+        <v>0.65</v>
+      </c>
+      <c r="C280">
+        <v>10.66919789503287</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>1500</v>
+      </c>
+      <c r="B281">
+        <v>0.65</v>
+      </c>
+      <c r="C281">
+        <v>10.67217248326812</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>821</v>
+      </c>
+      <c r="B282">
+        <v>0.64</v>
+      </c>
+      <c r="C282">
+        <v>10.70023973313194</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>372</v>
+      </c>
+      <c r="B283">
+        <v>0.63</v>
+      </c>
+      <c r="C283">
+        <v>11.41774186509995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>208</v>
+      </c>
+      <c r="B284">
+        <v>0.62</v>
+      </c>
+      <c r="C284">
+        <v>10.6690983749327</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>802</v>
+      </c>
+      <c r="B285">
+        <v>0.62</v>
+      </c>
+      <c r="C285">
+        <v>10.50427019264801</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>123</v>
+      </c>
+      <c r="B286">
+        <v>0.61</v>
+      </c>
+      <c r="C286">
+        <v>11.01541286472616</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>83</v>
+      </c>
+      <c r="B287">
+        <v>0.61</v>
+      </c>
+      <c r="C287">
+        <v>12.92570549861437</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>45</v>
+      </c>
+      <c r="B288">
+        <v>0.61</v>
+      </c>
+      <c r="C288">
+        <v>10.47458718858607</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>582</v>
+      </c>
+      <c r="B289">
+        <v>0.6</v>
+      </c>
+      <c r="C289">
+        <v>10.68427605330931</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>269</v>
+      </c>
+      <c r="B290">
+        <v>0.59</v>
+      </c>
+      <c r="C290">
+        <v>10.38195207327268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>1592</v>
+      </c>
+      <c r="B291">
+        <v>0.57</v>
+      </c>
+      <c r="C291">
+        <v>10.67149616786039</v>
       </c>
     </row>
   </sheetData>
